--- a/user_output.xlsx
+++ b/user_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>True Predicted</t>
+    <t>Intervals</t>
   </si>
   <si>
-    <t>False Predicted</t>
+    <t>Number Of Count</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,21 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
